--- a/seminar_8.xlsx
+++ b/seminar_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc201\Desktop\GB\HW\BusinessProcesses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0B4F3-82DA-4DD4-9168-CB491609EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3DE565-0F77-49C2-AA0D-E8304E44038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A3004248-EC1D-4D49-A1F8-A89DBAD0A4DC}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15370" xr2:uid="{A3004248-EC1D-4D49-A1F8-A89DBAD0A4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ДЗ по "Основы моделирования бизнес-процессов (семинары)"</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>Можно также добавить критерии типа информирования Viber, Telegram, WhatsApp, СМС.</t>
+  </si>
+  <si>
+    <t>Комментарии преподавателя</t>
+  </si>
+  <si>
+    <t>Евгений, добрый день!</t>
+  </si>
+  <si>
+    <t>Прекрасная работа,</t>
+  </si>
+  <si>
+    <t>Поделюсь с вами, чтобы я чтобы я сделала :</t>
+  </si>
+  <si>
+    <t>- проанализировала базу данных (или другой источник), откуда берутся данные (туры) для рассылок клиентам.</t>
+  </si>
+  <si>
+    <t>- Может, возможно автоматизировать какой-то процесс, чтобы обновление информации происходило чаще.</t>
+  </si>
+  <si>
+    <t>- проанализировала наполнение самой рассылки, возможно можно что-то упростить, например,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сделать инструкции именно для рассылки более универсальными или шаблонными, вследствие чего не нужно каждый раз их редактировать и менять при каких-то изменениях.</t>
   </si>
 </sst>
 </file>
@@ -772,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1299F7-467F-4CC3-9328-1E50A03F4B01}">
-  <dimension ref="B3:I46"/>
+  <dimension ref="B3:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,6 +1142,64 @@
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
     </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
